--- a/Reference/CivilEffectType.xlsx
+++ b/Reference/CivilEffectType.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>效果类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,10 +246,6 @@
   </si>
   <si>
     <t>根据max（0，（上阵工人总数-10）*[0]）改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摧毁对手未建成的奇观并获得积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,167 +506,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>改变粮食和资源总计[0]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若粮食产出&gt;粮食消耗，改变[0]类型的属性[1]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿取领袖卡时，减少白点消耗[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿取奇观卡时，免除额外白点消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若军力不低于对手，改变[0]类型的属性[1]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据军力高于自己的其他玩家的数量*[1]，改变[0]类型的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据文化高于自己的其他玩家的数量*[1]，改变[0]类型的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合替换了领袖，则拿取本卡片时，减少白点消耗[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在判定阵型时，可将步兵单位视为骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治行动开始时，像其展示下一张事件卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700~799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉莫拉比，使用红点进行选举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯撒，额外执行一次政治阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥伦布，政治阶段血祭哥伦布获得殖民地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚历山大大帝，政治阶段血祭亚历山大大帝加黄点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷马，选举后把荷马关进奇迹让大家开心的围观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴巴罗萨，1红拉壮丁参军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成吉思汗，回合结束实力加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜丝，军事政变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘吉尔，怂还是干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮船，走私人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据戏院总数*[1]改变[0]类型属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究戏院科技减少科技消耗[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好的戏院双倍产出文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据所有实验室建筑的科技产出*[0]改变文化产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级、建造城市建筑时，根据min(建筑等级,[0]）减少资源消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据增加笑脸的卡牌、建筑总数*[0]改变笑脸（不包含自己，不包含-笑脸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据所有科技卡等级*[0]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据图书、戏剧提供的文化产出*[0]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据所有城市提供的[0]类型属性之和*[1]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:政治阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：行动阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：行动结束自动发动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，无使用限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，回合限定一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，人生限定一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除对手时代[0]以下的城市建筑，并根据其建造消耗获得资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除对手的领袖或者未建成的奇迹，并根据其等级获得文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造[0]时代以下建筑减少资源消耗[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究科技减少文化消耗[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费建造1个[0]时代[1]类型的建筑或单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>若拥有殖民地，改变[0]类型的属性[1]点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改变粮食和资源总计[0]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若粮食产出&gt;粮食消耗，改变[0]类型的属性[1]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿取领袖卡时，减少白点消耗[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿取奇观卡时，免除额外白点消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若军力不低于对手，改变[0]类型的属性[1]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据军力高于自己的其他玩家的数量*[1]，改变[0]类型的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据文化高于自己的其他玩家的数量*[1]，改变[0]类型的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合替换了领袖，则拿取本卡片时，减少白点消耗[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在判定阵型时，可将步兵单位视为骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治行动开始时，像其展示下一张事件卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700~799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉莫拉比，使用红点进行选举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯撒，额外执行一次政治阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥伦布，政治阶段血祭哥伦布获得殖民地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚历山大大帝，政治阶段血祭亚历山大大帝加黄点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷马，选举后把荷马关进奇迹让大家开心的围观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴巴罗萨，1红拉壮丁参军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成吉思汗，回合结束实力加分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜丝，军事政变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘吉尔，怂还是干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮船，走私人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据戏院总数*[1]改变[0]类型属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究戏院科技减少科技消耗[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好的戏院双倍产出文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据所有实验室建筑的科技产出*[0]改变文化产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级、建造城市建筑时，根据min(建筑等级,[0]）减少资源消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据增加笑脸的卡牌、建筑总数*[0]改变笑脸（不包含自己，不包含-笑脸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据最好的矿产类建筑改变的矿物产出*[0]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据所有科技卡等级*[0]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据图书、戏剧提供的文化产出*[0]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据所有城市提供的[0]类型属性之和*[1]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:政治阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：行动阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3：行动结束自动发动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，无使用限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2，回合限定一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3，人生限定一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆除对手时代[0]以下的城市建筑，并根据其建造消耗获得资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除对手的领袖或者未建成的奇迹，并根据其等级获得文化</t>
+    <t>若军力是最低的两个之一，则改变[0]类型的属性[1]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有不幸福的工人，且是数量最高的，则改变[0]类型的属性[1]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去一个殖民地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取军事卡[0]张,若在时代4则效果为获得[0]文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掉军事卡[0]张,若在时代4则效果为失去[0]文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧毁其他所有玩家的城市建筑各1座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据矿产类建筑改变的矿物产出*[0]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据城市建筑、军事单位、蓝科技的类型数*[0]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据所有玩家[0]属性的排名*[1]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据3时代（进阶模式中为2时代）科技卡的总数*[1]改变文化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:A95"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1045,10 +1089,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1062,7 +1106,7 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1076,7 +1120,7 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1090,7 +1134,7 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1104,7 +1148,7 @@
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1118,7 +1162,7 @@
         <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1128,11 +1172,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>107</v>
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1143,10 +1187,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1156,11 +1200,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>201</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1171,10 +1215,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1185,10 +1229,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1199,10 +1243,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1213,10 +1257,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1227,10 +1271,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1241,10 +1285,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1255,10 +1299,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -1269,10 +1313,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1283,10 +1327,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -1297,10 +1341,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -1311,10 +1355,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -1325,10 +1369,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1339,10 +1383,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1353,10 +1397,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1367,10 +1411,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -1381,10 +1425,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -1395,10 +1439,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -1409,10 +1453,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -1423,732 +1467,823 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>110</v>
+      <c r="A49">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>304</v>
-      </c>
-      <c r="B54" t="s">
-        <v>65</v>
+      <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>112</v>
+      <c r="A66">
+        <v>311</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>405</v>
+        <v>317</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>406</v>
-      </c>
-      <c r="B73" t="s">
-        <v>146</v>
+      <c r="A73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>114</v>
+      <c r="A86">
+        <v>412</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>500</v>
+        <v>413</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>502</v>
+        <v>415</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>503</v>
+        <v>416</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>505</v>
+        <v>418</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>507</v>
+        <v>420</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
+        <v>422</v>
+      </c>
+      <c r="B96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>500</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>501</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>502</v>
+      </c>
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>503</v>
+      </c>
+      <c r="B101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>504</v>
+      </c>
+      <c r="B102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>505</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>506</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>507</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>508</v>
+      </c>
+      <c r="B106" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>509</v>
       </c>
-      <c r="B96" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="B107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>510</v>
       </c>
-      <c r="B97" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="B108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="B109" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>600</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>601</v>
+      </c>
+      <c r="B111" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>601</v>
-      </c>
-      <c r="B100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>602</v>
       </c>
-      <c r="B101" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="B112" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>603</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>604</v>
+      </c>
+      <c r="B114" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>604</v>
-      </c>
-      <c r="B103" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>605</v>
       </c>
-      <c r="B104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>606</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>607</v>
+      </c>
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>607</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="B118" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+      <c r="C118"/>
+      <c r="D118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>700</v>
+      </c>
+      <c r="B119" t="s">
+        <v>133</v>
+      </c>
+      <c r="D119" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>701</v>
+      </c>
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>702</v>
+      </c>
+      <c r="B121" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>703</v>
+      </c>
+      <c r="B122" t="s">
         <v>131</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>700</v>
-      </c>
-      <c r="B108" t="s">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>704</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>705</v>
+      </c>
+      <c r="B124" t="s">
         <v>135</v>
       </c>
-      <c r="D108" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>701</v>
-      </c>
-      <c r="B109" t="s">
-        <v>132</v>
-      </c>
-      <c r="D109" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>702</v>
-      </c>
-      <c r="B110" t="s">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>706</v>
+      </c>
+      <c r="B125" t="s">
         <v>136</v>
       </c>
-      <c r="D110" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>703</v>
-      </c>
-      <c r="B111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>704</v>
-      </c>
-      <c r="B112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>705</v>
-      </c>
-      <c r="B113" t="s">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>707</v>
+      </c>
+      <c r="B126" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>706</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>708</v>
+      </c>
+      <c r="B127" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>707</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>750</v>
+      </c>
+      <c r="B128" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>708</v>
-      </c>
-      <c r="B116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>750</v>
-      </c>
-      <c r="B117" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Reference/CivilEffectType.xlsx
+++ b/Reference/CivilEffectType.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20734" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="效果清单" sheetId="1" r:id="rId1"/>
@@ -502,226 +502,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>改变粮食和资源总计[0]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若粮食产出&gt;粮食消耗，改变[0]类型的属性[1]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿取领袖卡时，减少白点消耗[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿取奇观卡时，免除额外白点消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若军力不低于对手，改变[0]类型的属性[1]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据军力高于自己的其他玩家的数量*[1]，改变[0]类型的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据文化高于自己的其他玩家的数量*[1]，改变[0]类型的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本回合替换了领袖，则拿取本卡片时，减少白点消耗[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在判定阵型时，可将步兵单位视为骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治行动开始时，像其展示下一张事件卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700~799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉莫拉比，使用红点进行选举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯撒，额外执行一次政治阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥伦布，政治阶段血祭哥伦布获得殖民地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚历山大大帝，政治阶段血祭亚历山大大帝加黄点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷马，选举后把荷马关进奇迹让大家开心的围观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴巴罗萨，1红拉壮丁参军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成吉思汗，回合结束实力加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜丝，军事政变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘吉尔，怂还是干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮船，走私人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据戏院总数*[1]改变[0]类型属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究戏院科技减少科技消耗[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好的戏院双倍产出文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据所有实验室建筑的科技产出*[0]改变文化产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级、建造城市建筑时，根据min(建筑等级,[0]）减少资源消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据增加笑脸的卡牌、建筑总数*[0]改变笑脸（不包含自己，不包含-笑脸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据所有科技卡等级*[0]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据图书、戏剧提供的文化产出*[0]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据所有城市提供的[0]类型属性之和*[1]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:政治阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：行动阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：行动结束自动发动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，无使用限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，回合限定一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，人生限定一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除对手时代[0]以下的城市建筑，并根据其建造消耗获得资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除对手的领袖或者未建成的奇迹，并根据其等级获得文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造[0]时代以下建筑减少资源消耗[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究科技减少文化消耗[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费建造1个[0]时代[1]类型的建筑或单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若拥有殖民地，改变[0]类型的属性[1]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若军力是最低的两个之一，则改变[0]类型的属性[1]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若有不幸福的工人，且是数量最高的，则改变[0]类型的属性[1]点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去一个殖民地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取军事卡[0]张,若在时代4则效果为获得[0]文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掉军事卡[0]张,若在时代4则效果为失去[0]文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧毁其他所有玩家的城市建筑各1座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据矿产类建筑改变的矿物产出*[0]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据城市建筑、军事单位、蓝科技的类型数*[0]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据所有玩家[0]属性的排名*[1]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据3时代（进阶模式中为2时代）科技卡的总数*[1]改变文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>改变[0]类型的属性[1]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改变粮食和资源总计[0]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若粮食产出&gt;粮食消耗，改变[0]类型的属性[1]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿取领袖卡时，减少白点消耗[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿取奇观卡时，免除额外白点消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若军力不低于对手，改变[0]类型的属性[1]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据军力高于自己的其他玩家的数量*[1]，改变[0]类型的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据文化高于自己的其他玩家的数量*[1]，改变[0]类型的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若本回合替换了领袖，则拿取本卡片时，减少白点消耗[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在判定阵型时，可将步兵单位视为骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治行动开始时，像其展示下一张事件卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700~799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉莫拉比，使用红点进行选举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯撒，额外执行一次政治阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥伦布，政治阶段血祭哥伦布获得殖民地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚历山大大帝，政治阶段血祭亚历山大大帝加黄点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷马，选举后把荷马关进奇迹让大家开心的围观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴巴罗萨，1红拉壮丁参军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成吉思汗，回合结束实力加分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜丝，军事政变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘吉尔，怂还是干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮船，走私人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据戏院总数*[1]改变[0]类型属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究戏院科技减少科技消耗[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好的戏院双倍产出文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据所有实验室建筑的科技产出*[0]改变文化产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级、建造城市建筑时，根据min(建筑等级,[0]）减少资源消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据增加笑脸的卡牌、建筑总数*[0]改变笑脸（不包含自己，不包含-笑脸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据所有科技卡等级*[0]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据图书、戏剧提供的文化产出*[0]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据所有城市提供的[0]类型属性之和*[1]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:政治阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：行动阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3：行动结束自动发动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，无使用限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2，回合限定一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3，人生限定一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆除对手时代[0]以下的城市建筑，并根据其建造消耗获得资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除对手的领袖或者未建成的奇迹，并根据其等级获得文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造[0]时代以下建筑减少资源消耗[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究科技减少文化消耗[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费建造1个[0]时代[1]类型的建筑或单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若拥有殖民地，改变[0]类型的属性[1]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若军力是最低的两个之一，则改变[0]类型的属性[1]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若有不幸福的工人，且是数量最高的，则改变[0]类型的属性[1]点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去一个殖民地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取军事卡[0]张,若在时代4则效果为获得[0]文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃掉军事卡[0]张,若在时代4则效果为失去[0]文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摧毁其他所有玩家的城市建筑各1座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据矿产类建筑改变的矿物产出*[0]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据城市建筑、军事单位、蓝科技的类型数*[0]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据所有玩家[0]属性的排名*[1]改变文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据3时代（进阶模式中为2时代）科技卡的总数*[1]改变文化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1050,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,20 +1060,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>104</v>
       </c>
@@ -1101,12 +1101,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1115,12 +1115,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1129,12 +1129,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1143,12 +1143,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1157,12 +1157,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1171,12 +1171,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1185,12 +1185,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1199,7 +1199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>105</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>200</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>201</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>202</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>203</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>204</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>208</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>209</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>210</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>211</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>212</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>213</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>214</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>215</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>216</v>
       </c>
@@ -1451,12 +1451,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -1465,15 +1465,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>219</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>220</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>221</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>222</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>223</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>224</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>225</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>226</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>227</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>228</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>229</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>230</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>231</v>
       </c>
@@ -1577,95 +1577,95 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>232</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>233</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>234</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>234</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>237</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>238</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>240</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>241</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>300</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>301</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>302</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>303</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>304</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>305</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>306</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>307</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>308</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>309</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>310</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>311</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>312</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>313</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>314</v>
       </c>
@@ -1793,31 +1793,31 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>315</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>316</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>317</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>400</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>401</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>402</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>403</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>404</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>405</v>
       </c>
@@ -1873,15 +1873,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>406</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>407</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>408</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>409</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>410</v>
       </c>
@@ -1913,31 +1913,31 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>411</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>412</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>413</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>414</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>415</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>416</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>417</v>
       </c>
@@ -1969,47 +1969,47 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>418</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>419</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>420</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>421</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>422</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>112</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>500</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>501</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>502</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>503</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>504</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>505</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>506</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>507</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>508</v>
       </c>
@@ -2089,23 +2089,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>509</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>510</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>116</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>600</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>601</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>602</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>603</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>604</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>605</v>
       </c>
@@ -2161,129 +2161,129 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>606</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>607</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>700</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>701</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E120" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>702</v>
       </c>
       <c r="B121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>703</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>704</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>705</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>706</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>707</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>708</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>750</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2301,7 @@
       <selection activeCell="A28" sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reference/CivilEffectType.xlsx
+++ b/Reference/CivilEffectType.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20734" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="效果清单" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>效果类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,12 +717,60 @@
     <t>改变[0]类型的属性[1]点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>800-899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flags（旗标）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当卡牌[0=自己]打出时附加Flag[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通旗标[0=自身卡牌][1=旗标编号]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个完整回合开始时附加旗标[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个政治阶段开始前附加旗标[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个内政行动开始前附加旗标[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前回合结束时附加旗标[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即移除普通旗标[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即移除特殊旗标[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能拿取时代[0]的领袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊旗标：不能拿取时代[0]的领袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +792,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -772,12 +827,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1057,23 +1113,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>104</v>
       </c>
@@ -1101,7 +1157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -1115,7 +1171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1129,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>102</v>
       </c>
@@ -1143,7 +1199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1157,7 +1213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>104</v>
       </c>
@@ -1171,7 +1227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>105</v>
       </c>
@@ -1185,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>106</v>
       </c>
@@ -1199,7 +1255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>105</v>
       </c>
@@ -1213,7 +1269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>200</v>
       </c>
@@ -1227,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>201</v>
       </c>
@@ -1241,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>202</v>
       </c>
@@ -1255,7 +1311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>203</v>
       </c>
@@ -1269,7 +1325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>204</v>
       </c>
@@ -1283,7 +1339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>205</v>
       </c>
@@ -1297,7 +1353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1311,7 +1367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>207</v>
       </c>
@@ -1325,7 +1381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>208</v>
       </c>
@@ -1339,7 +1395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>209</v>
       </c>
@@ -1353,7 +1409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>210</v>
       </c>
@@ -1367,7 +1423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>211</v>
       </c>
@@ -1381,7 +1437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>212</v>
       </c>
@@ -1395,7 +1451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>213</v>
       </c>
@@ -1409,7 +1465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>214</v>
       </c>
@@ -1423,7 +1479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>215</v>
       </c>
@@ -1437,7 +1493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>216</v>
       </c>
@@ -1451,7 +1507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>217</v>
       </c>
@@ -1465,7 +1521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>218</v>
       </c>
@@ -1473,7 +1529,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>219</v>
       </c>
@@ -1481,7 +1537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>220</v>
       </c>
@@ -1489,7 +1545,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>221</v>
       </c>
@@ -1497,7 +1553,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>222</v>
       </c>
@@ -1505,7 +1561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>223</v>
       </c>
@@ -1513,7 +1569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>224</v>
       </c>
@@ -1521,7 +1577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>225</v>
       </c>
@@ -1529,7 +1585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>226</v>
       </c>
@@ -1537,7 +1593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>227</v>
       </c>
@@ -1545,7 +1601,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>228</v>
       </c>
@@ -1553,7 +1609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>229</v>
       </c>
@@ -1561,7 +1617,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>230</v>
       </c>
@@ -1569,7 +1625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>231</v>
       </c>
@@ -1577,7 +1633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>232</v>
       </c>
@@ -1585,7 +1641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>233</v>
       </c>
@@ -1593,7 +1649,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>234</v>
       </c>
@@ -1601,7 +1657,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>234</v>
       </c>
@@ -1609,7 +1665,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>235</v>
       </c>
@@ -1617,7 +1673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>236</v>
       </c>
@@ -1625,7 +1681,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>237</v>
       </c>
@@ -1633,7 +1689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>238</v>
       </c>
@@ -1641,7 +1697,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>239</v>
       </c>
@@ -1649,7 +1705,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>240</v>
       </c>
@@ -1657,7 +1713,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>241</v>
       </c>
@@ -1665,7 +1721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -1673,7 +1729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>300</v>
       </c>
@@ -1681,7 +1737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>301</v>
       </c>
@@ -1689,7 +1745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>302</v>
       </c>
@@ -1697,7 +1753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>303</v>
       </c>
@@ -1705,7 +1761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>304</v>
       </c>
@@ -1713,7 +1769,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>305</v>
       </c>
@@ -1721,7 +1777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>306</v>
       </c>
@@ -1729,7 +1785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>307</v>
       </c>
@@ -1737,7 +1793,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>308</v>
       </c>
@@ -1745,7 +1801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>309</v>
       </c>
@@ -1753,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>310</v>
       </c>
@@ -1761,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>311</v>
       </c>
@@ -1769,7 +1825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>312</v>
       </c>
@@ -1777,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>313</v>
       </c>
@@ -1785,7 +1841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>314</v>
       </c>
@@ -1793,7 +1849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>315</v>
       </c>
@@ -1801,7 +1857,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>316</v>
       </c>
@@ -1809,7 +1865,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>317</v>
       </c>
@@ -1817,7 +1873,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
@@ -1825,7 +1881,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>400</v>
       </c>
@@ -1833,7 +1889,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>401</v>
       </c>
@@ -1841,7 +1897,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>402</v>
       </c>
@@ -1849,7 +1905,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>403</v>
       </c>
@@ -1857,7 +1913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>404</v>
       </c>
@@ -1865,7 +1921,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>405</v>
       </c>
@@ -1873,7 +1929,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>406</v>
       </c>
@@ -1881,7 +1937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>407</v>
       </c>
@@ -1889,7 +1945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>408</v>
       </c>
@@ -1897,7 +1953,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>409</v>
       </c>
@@ -1905,7 +1961,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>410</v>
       </c>
@@ -1913,7 +1969,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>411</v>
       </c>
@@ -1921,7 +1977,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>412</v>
       </c>
@@ -1929,7 +1985,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>413</v>
       </c>
@@ -1937,7 +1993,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>414</v>
       </c>
@@ -1945,7 +2001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>415</v>
       </c>
@@ -1953,7 +2009,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>416</v>
       </c>
@@ -1961,7 +2017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>417</v>
       </c>
@@ -1969,7 +2025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>418</v>
       </c>
@@ -1977,7 +2033,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>419</v>
       </c>
@@ -1985,7 +2041,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>420</v>
       </c>
@@ -1993,7 +2049,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>421</v>
       </c>
@@ -2001,7 +2057,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>422</v>
       </c>
@@ -2009,7 +2065,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>112</v>
       </c>
@@ -2017,7 +2073,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>500</v>
       </c>
@@ -2025,7 +2081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>501</v>
       </c>
@@ -2033,7 +2089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>502</v>
       </c>
@@ -2041,7 +2097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>503</v>
       </c>
@@ -2049,7 +2105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>504</v>
       </c>
@@ -2057,7 +2113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>505</v>
       </c>
@@ -2065,7 +2121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>506</v>
       </c>
@@ -2073,7 +2129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>507</v>
       </c>
@@ -2081,7 +2137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>508</v>
       </c>
@@ -2089,7 +2145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>509</v>
       </c>
@@ -2097,7 +2153,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>510</v>
       </c>
@@ -2105,7 +2161,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>116</v>
       </c>
@@ -2113,7 +2169,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>600</v>
       </c>
@@ -2121,7 +2177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>601</v>
       </c>
@@ -2129,7 +2185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>602</v>
       </c>
@@ -2137,7 +2193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>603</v>
       </c>
@@ -2145,7 +2201,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>604</v>
       </c>
@@ -2153,7 +2209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>605</v>
       </c>
@@ -2161,7 +2217,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>606</v>
       </c>
@@ -2169,7 +2225,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>607</v>
       </c>
@@ -2179,111 +2235,201 @@
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>608</v>
+      </c>
+      <c r="B118" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C118"/>
-      <c r="D118" t="s">
+      <c r="C119"/>
+      <c r="D119" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>700</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>132</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>149</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>701</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>129</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>150</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
         <v>702</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>133</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
         <v>703</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>704</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>705</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>706</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>707</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>708</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
         <v>750</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>800</v>
+      </c>
+      <c r="B131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>801</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>802</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>803</v>
+      </c>
+      <c r="B134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>804</v>
+      </c>
+      <c r="B135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>805</v>
+      </c>
+      <c r="B136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>806</v>
+      </c>
+      <c r="B137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>807</v>
+      </c>
+      <c r="B138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>820</v>
+      </c>
+      <c r="B139" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2294,14 +2440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
